--- a/BackTest/2020-01-12 BackTest DAC.xlsx
+++ b/BackTest/2020-01-12 BackTest DAC.xlsx
@@ -17531,13 +17531,17 @@
         <v>2.066566666666665</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="K490" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
@@ -17572,8 +17576,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17607,8 +17617,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17642,8 +17658,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17677,8 +17699,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17712,8 +17740,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17747,8 +17781,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17782,8 +17822,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17814,11 +17860,17 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17852,8 +17904,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17887,8 +17945,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17922,8 +17986,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17957,8 +18027,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17992,8 +18068,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18027,8 +18109,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18062,8 +18150,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18097,8 +18191,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18132,8 +18232,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18167,8 +18273,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18196,14 +18308,22 @@
         <v>2.048883333333333</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="K509" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18231,14 +18351,22 @@
         <v>2.0477</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="K510" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18272,8 +18400,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18310,9 +18444,13 @@
         <v>2.017</v>
       </c>
       <c r="K512" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="L512" t="inlineStr"/>
+        <v>2.015</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18346,14 +18484,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>2.014</v>
+        <v>2.017</v>
       </c>
       <c r="K513" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M513" t="n">
@@ -18383,16 +18521,14 @@
         <v>2.04405</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -18426,16 +18562,14 @@
         <v>2.0434</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>2.032</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -18476,7 +18610,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -18517,7 +18651,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -18558,7 +18692,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -18599,7 +18733,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -18636,11 +18770,11 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -18681,7 +18815,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -18722,7 +18856,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -18763,7 +18897,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -18804,7 +18938,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -18845,7 +18979,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -18886,7 +19020,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -18927,7 +19061,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -18968,7 +19102,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -19009,7 +19143,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -19043,16 +19177,14 @@
         <v>2.029283333333334</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -19086,16 +19218,14 @@
         <v>2.028400000000001</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>2.028</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -19129,24 +19259,22 @@
         <v>2.027583333333335</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
-        <v>1</v>
-      </c>
-      <c r="J532" t="n">
-        <v>2.017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>2.017</v>
+        <v>2.015</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>0.9989662865642043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -19172,18 +19300,18 @@
         <v>2.026600000000001</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M533" t="n">
@@ -19213,15 +19341,15 @@
         <v>2.025533333333335</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19254,15 +19382,15 @@
         <v>2.024500000000001</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19295,15 +19423,15 @@
         <v>2.023700000000001</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>2.016</v>
-      </c>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,15 +19464,15 @@
         <v>2.022933333333334</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19377,15 +19505,15 @@
         <v>2.022416666666668</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>2.025</v>
-      </c>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19418,15 +19546,15 @@
         <v>2.021850000000001</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>2.026</v>
-      </c>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19459,15 +19587,15 @@
         <v>2.021166666666668</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>2.022</v>
-      </c>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,15 +19628,15 @@
         <v>2.021150000000001</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19541,15 +19669,15 @@
         <v>2.021433333333335</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>2.021</v>
-      </c>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19582,15 +19710,15 @@
         <v>2.021783333333334</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19629,7 +19757,9 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19668,7 +19798,9 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19707,7 +19839,9 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,7 +19880,9 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,7 +19921,9 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19824,7 +19962,9 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19860,16 +20000,20 @@
         <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M550" t="inlineStr"/>
+      <c r="M550" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -19897,11 +20041,17 @@
         <v>0</v>
       </c>
       <c r="I551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19935,8 +20085,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19970,8 +20126,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20005,8 +20167,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20040,8 +20208,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20075,8 +20249,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20110,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20145,8 +20331,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20180,8 +20372,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20215,8 +20413,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20250,8 +20454,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20285,8 +20495,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20536,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20355,8 +20577,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20390,8 +20618,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20425,8 +20659,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20460,8 +20700,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20495,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20530,8 +20782,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20565,8 +20823,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20600,8 +20864,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20629,18 +20899,18 @@
         <v>2.029283333333335</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M572" t="n">
@@ -20670,15 +20940,15 @@
         <v>2.029266666666668</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20711,15 +20981,15 @@
         <v>2.029233333333335</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20752,15 +21022,15 @@
         <v>2.029133333333335</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>2.025</v>
-      </c>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20793,15 +21063,15 @@
         <v>2.028983333333335</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>2.025</v>
-      </c>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20834,15 +21104,15 @@
         <v>2.028916666666668</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>2.019</v>
-      </c>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20875,15 +21145,15 @@
         <v>2.028783333333335</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20916,15 +21186,15 @@
         <v>2.028683333333335</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20957,15 +21227,15 @@
         <v>2.028483333333335</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20998,15 +21268,15 @@
         <v>2.028650000000002</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>2.016</v>
-      </c>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21039,15 +21309,15 @@
         <v>2.028816666666668</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>2.022</v>
-      </c>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,15 +21350,15 @@
         <v>2.028833333333334</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,15 +21391,15 @@
         <v>2.028883333333335</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21162,15 +21432,15 @@
         <v>2.028850000000001</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21209,7 +21479,9 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21242,15 +21514,15 @@
         <v>2.028850000000001</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21283,15 +21555,15 @@
         <v>2.028700000000001</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>2.016</v>
-      </c>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21324,15 +21596,15 @@
         <v>2.028933333333334</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>2.014</v>
-      </c>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21371,7 +21643,9 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21410,7 +21684,9 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21449,7 +21725,9 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21488,7 +21766,9 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21521,15 +21801,15 @@
         <v>2.028266666666668</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>2.014</v>
-      </c>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21562,15 +21842,15 @@
         <v>2.028350000000001</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21603,15 +21883,15 @@
         <v>2.028400000000001</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21644,15 +21924,15 @@
         <v>2.028466666666668</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>2.016</v>
-      </c>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21685,15 +21965,15 @@
         <v>2.028066666666668</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21726,15 +22006,15 @@
         <v>2.027816666666668</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21767,15 +22047,15 @@
         <v>2.027616666666668</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21814,7 +22094,9 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21853,7 +22135,9 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,22 +22170,22 @@
         <v>2.026750000000001</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
-        <v>0</v>
-      </c>
-      <c r="J603" t="n">
-        <v>2.025</v>
-      </c>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>2.015</v>
+      </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>1</v>
+        <v>1.00045905707196</v>
       </c>
     </row>
     <row r="604">
@@ -21927,20 +22211,14 @@
         <v>2.026550000000001</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21968,20 +22246,14 @@
         <v>2.026200000000001</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22009,20 +22281,14 @@
         <v>2.025850000000001</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22050,20 +22316,14 @@
         <v>2.025566666666668</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22091,20 +22351,14 @@
         <v>2.025066666666668</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22132,20 +22386,14 @@
         <v>2.024616666666668</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22173,20 +22421,14 @@
         <v>2.024266666666668</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22214,20 +22456,14 @@
         <v>2.023983333333335</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22255,20 +22491,14 @@
         <v>2.023550000000001</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22296,20 +22526,14 @@
         <v>2.023050000000001</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22337,20 +22561,14 @@
         <v>2.022683333333334</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22378,20 +22596,14 @@
         <v>2.022416666666667</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22419,20 +22631,14 @@
         <v>2.022150000000001</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>2.016</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22460,20 +22666,14 @@
         <v>2.021633333333334</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22501,20 +22701,14 @@
         <v>2.021366666666667</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>2.017</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22542,20 +22736,14 @@
         <v>2.020883333333334</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22583,20 +22771,14 @@
         <v>2.020866666666667</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22624,20 +22806,14 @@
         <v>2.020633333333334</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>2.012</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22665,20 +22841,14 @@
         <v>2.020416666666667</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>2.011</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22706,20 +22876,14 @@
         <v>2.020316666666667</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>2.014</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22747,20 +22911,14 @@
         <v>2.020316666666667</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
       </c>
-      <c r="J624" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22788,20 +22946,14 @@
         <v>2.020133333333334</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>2.016</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22829,20 +22981,14 @@
         <v>2.020016666666667</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>2.017</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22870,20 +23016,14 @@
         <v>2.020033333333334</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>2.017</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22911,20 +23051,14 @@
         <v>2.019900000000001</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22952,20 +23086,14 @@
         <v>2.019766666666667</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22993,20 +23121,14 @@
         <v>2.019850000000001</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23034,20 +23156,14 @@
         <v>2.019916666666667</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23075,20 +23191,14 @@
         <v>2.019966666666667</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>2.024</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23116,20 +23226,14 @@
         <v>2.020083333333334</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23157,20 +23261,14 @@
         <v>2.020033333333334</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23198,20 +23296,14 @@
         <v>2.019950000000001</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23239,20 +23331,14 @@
         <v>2.019900000000001</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23280,20 +23366,14 @@
         <v>2.019816666666668</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23321,20 +23401,14 @@
         <v>2.019783333333334</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23362,20 +23436,14 @@
         <v>2.019783333333334</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23403,20 +23471,14 @@
         <v>2.019933333333334</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23444,20 +23506,14 @@
         <v>2.019800000000001</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>2.015</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23485,20 +23541,14 @@
         <v>2.019583333333335</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>2.018</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23526,20 +23576,14 @@
         <v>2.019516666666668</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>2.016</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23567,20 +23611,14 @@
         <v>2.019283333333335</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23608,20 +23646,14 @@
         <v>2.019400000000001</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>2.017</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23649,20 +23681,14 @@
         <v>2.019300000000002</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23690,20 +23716,14 @@
         <v>2.019266666666668</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23731,20 +23751,14 @@
         <v>2.019283333333335</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="n">
-        <v>2.029</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23772,20 +23786,14 @@
         <v>2.019250000000002</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="n">
-        <v>2.029</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23813,20 +23821,14 @@
         <v>2.019450000000002</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23854,20 +23856,14 @@
         <v>2.019500000000002</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
       </c>
-      <c r="J651" t="n">
-        <v>2.018</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23895,20 +23891,14 @@
         <v>2.019516666666668</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>2.029</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23936,20 +23926,14 @@
         <v>2.019666666666668</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
-        <v>2.024</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23977,20 +23961,14 @@
         <v>2.019916666666668</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24018,20 +23996,14 @@
         <v>2.019816666666668</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
       </c>
-      <c r="J655" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24059,20 +24031,14 @@
         <v>2.019600000000001</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="n">
-        <v>2.017</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24100,20 +24066,14 @@
         <v>2.019600000000001</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24141,20 +24101,14 @@
         <v>2.019833333333335</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24182,20 +24136,14 @@
         <v>2.020066666666668</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24223,20 +24171,14 @@
         <v>2.020183333333335</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>2.016</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24264,20 +24206,14 @@
         <v>2.020133333333335</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24305,20 +24241,14 @@
         <v>2.020250000000001</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>2.018</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24346,20 +24276,14 @@
         <v>2.020133333333335</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24387,20 +24311,14 @@
         <v>2.020100000000001</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>2.018</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24428,20 +24346,14 @@
         <v>2.020016666666668</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24469,20 +24381,14 @@
         <v>2.020116666666668</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24510,20 +24416,14 @@
         <v>2.020050000000001</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24551,20 +24451,14 @@
         <v>2.020016666666668</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>2.018</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24592,20 +24486,14 @@
         <v>2.020100000000002</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>2.024</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24633,20 +24521,14 @@
         <v>2.020033333333335</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>2.024</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24674,20 +24556,14 @@
         <v>2.020166666666669</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24715,20 +24591,14 @@
         <v>2.020266666666668</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24756,20 +24626,14 @@
         <v>2.020383333333335</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24797,20 +24661,14 @@
         <v>2.020433333333335</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24838,20 +24696,14 @@
         <v>2.020466666666669</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24879,20 +24731,14 @@
         <v>2.020500000000002</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="n">
-        <v>2.019</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24920,20 +24766,14 @@
         <v>2.020633333333336</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24961,20 +24801,14 @@
         <v>2.020733333333335</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25002,20 +24836,14 @@
         <v>2.020833333333336</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25043,20 +24871,14 @@
         <v>2.021016666666669</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25084,20 +24906,14 @@
         <v>2.021216666666669</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25125,20 +24941,14 @@
         <v>2.021366666666669</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L682" t="inlineStr"/>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25166,20 +24976,14 @@
         <v>2.021550000000003</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L683" t="inlineStr"/>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25207,20 +25011,14 @@
         <v>2.021733333333336</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25248,20 +25046,14 @@
         <v>2.021900000000002</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>2.021</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L685" t="inlineStr"/>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25289,20 +25081,14 @@
         <v>2.022066666666669</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25330,20 +25116,14 @@
         <v>2.022216666666669</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="n">
-        <v>2.022</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25378,11 +25158,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25410,20 +25186,14 @@
         <v>2.022516666666669</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>2.024</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L689" t="inlineStr"/>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25451,20 +25221,14 @@
         <v>2.022566666666669</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L690" t="inlineStr"/>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25492,20 +25256,14 @@
         <v>2.022633333333336</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25533,20 +25291,14 @@
         <v>2.022633333333336</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25574,20 +25326,14 @@
         <v>2.022666666666669</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25615,20 +25361,14 @@
         <v>2.022716666666668</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25656,20 +25396,14 @@
         <v>2.022783333333335</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25697,20 +25431,14 @@
         <v>2.022833333333335</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>2.028</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25738,20 +25466,14 @@
         <v>2.022933333333335</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25779,20 +25501,14 @@
         <v>2.023000000000002</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25820,20 +25536,14 @@
         <v>2.023050000000002</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>2.023</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25861,20 +25571,14 @@
         <v>2.023066666666669</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>2.028</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25902,20 +25606,14 @@
         <v>2.023233333333335</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25943,20 +25641,14 @@
         <v>2.023400000000001</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25984,20 +25676,14 @@
         <v>2.023433333333335</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26025,20 +25711,14 @@
         <v>2.023616666666668</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26066,20 +25746,14 @@
         <v>2.023700000000001</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26107,20 +25781,14 @@
         <v>2.023816666666668</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26148,20 +25816,14 @@
         <v>2.023883333333335</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26189,20 +25851,14 @@
         <v>2.024083333333335</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26230,20 +25886,14 @@
         <v>2.024116666666668</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>2.025</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26271,20 +25921,14 @@
         <v>2.024116666666668</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26312,20 +25956,14 @@
         <v>2.024300000000002</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>2.027</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26353,20 +25991,14 @@
         <v>2.024316666666668</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26394,20 +26026,14 @@
         <v>2.024300000000002</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>2.026</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26435,20 +26061,14 @@
         <v>2.024316666666668</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>2.028</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26476,20 +26096,14 @@
         <v>2.024433333333335</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>2.029</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26524,11 +26138,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26563,11 +26173,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26602,11 +26208,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26641,11 +26243,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26680,11 +26278,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26313,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26758,11 +26348,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26797,11 +26383,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26836,11 +26418,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26453,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26914,11 +26488,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26953,11 +26523,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26992,11 +26558,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27031,11 +26593,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27070,11 +26628,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27109,11 +26663,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27148,11 +26698,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27187,11 +26733,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27226,11 +26768,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27265,11 +26803,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -27304,11 +26838,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -27343,11 +26873,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -27382,11 +26908,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -27421,11 +26943,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -27460,11 +26978,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -27499,11 +27013,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27538,11 +27048,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27083,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27616,11 +27118,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27655,11 +27153,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27694,11 +27188,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27733,11 +27223,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27772,11 +27258,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27811,11 +27293,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27850,11 +27328,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27889,11 +27363,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27928,11 +27398,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27967,11 +27433,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +27468,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L754" t="inlineStr"/>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28045,11 +27503,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28084,11 +27538,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L756" t="inlineStr"/>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28123,11 +27573,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L757" t="inlineStr"/>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28162,11 +27608,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L758" t="inlineStr"/>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28201,11 +27643,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L759" t="inlineStr"/>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28240,11 +27678,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L760" t="inlineStr"/>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28279,11 +27713,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L761" t="inlineStr"/>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -28314,16 +27744,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -28351,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
@@ -28386,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
@@ -28421,7 +27849,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
@@ -28456,7 +27884,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
@@ -29751,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
@@ -29821,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
@@ -29856,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
@@ -29891,7 +29319,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
@@ -29926,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
@@ -30066,7 +29494,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
@@ -30101,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
@@ -30241,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
@@ -30276,7 +29704,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
@@ -30311,7 +29739,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
@@ -30381,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
@@ -30451,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
@@ -30521,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest DAC.xlsx
+++ b/BackTest/2020-01-12 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>-2075807.490399999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1812718.144299999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1867657.133499999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1830130.507799999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1702302.306799999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1629968.079999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1671993.732799999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1623077.423099999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1599662.806899999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1631410.994699999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1573134.866499999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1526542.179899999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1565377.649299999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1612195.774999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1562981.137799999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1582183.212599999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1529358.895599999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1569727.311599999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1616907.455399999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1549609.070699999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1593318.016499999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1482112.155699999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1520739.580699999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1475277.162099999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1435147.358299999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1385158.609699999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1342620.981899999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1373101.091299999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1415467.906999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1371524.989999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1338641.831599999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1381396.068499999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1422478.987299999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1374667.130399999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1419383.436399999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1388901.015799999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1429791.534599999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1389480.672099999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1431879.278999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1563894.681499999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1609596.656099999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1575826.281799999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1531687.496899999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1482225.006699999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1525955.736399999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1526529.435599999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1572674.319399999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1530908.408899999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1567395.385799999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1592340.177599999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1636827.965299999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1564794.751699999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1643786.640399999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1603710.257199999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1639355.530499999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1640495.525399999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1680984.476599999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1633133.188699999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1680671.641399999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-1687329.701699999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1695787.753199999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1732831.884699999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1662062.591199999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1757853.078599999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1801996.220699999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1805621.058899999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1767910.606899999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1725692.547099999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1748598.199299999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1687790.855299999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1712287.809099999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1657017.625699999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1728466.878599999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1772994.782499999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1753787.438199999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1801133.460399999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1796465.709499999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1819487.137899999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1774792.749799999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1807111.186899999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1850170.496999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1921374.412299999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1956496.078099999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1920111.713699999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1955487.641199999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1880418.913299999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2116147.947699999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2070258.445699999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2106881.714199999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2065925.373799999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2100617.097799999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2055731.660199999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2089572.944699999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2049087.909299999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2080645.038699999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2036862.680599999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2072374.745699999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2031846.069199999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1996079.757799999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2062444.280399999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2101914.676299999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2049184.168299999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2097679.444699998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2067294.421399998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2088333.518799999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2043689.041799999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1995671.907699999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1953570.890199999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2066047.589199999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2098627.053899999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2054554.944999999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2054554.944999999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2109127.180699999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2075698.015499999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2111300.367399998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2068521.948299998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2022296.083199998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2081455.080499998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2031903.491699998</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2072396.388699998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2036258.928799998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2069825.552399998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2048062.925199998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1999327.394199998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2035029.181499998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1998362.455499998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2045960.402199998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2010182.192499998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2051263.485999998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2005741.451499998</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1959650.642999998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1993080.210699998</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1954702.793099998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1978170.036099998</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1929760.707599998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1968775.492399998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1940250.588599998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2003738.268599998</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2003738.268599998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2037703.027799998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1969398.408599998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2008924.279599998</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1965979.446299998</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1943428.525799998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1903804.417499998</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1941796.615399998</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1899326.799599998</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1802113.754360857</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1823708.267460857</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1776121.885860857</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1810851.137760857</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1765079.848760857</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1813059.332060857</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1851279.180560857</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1851279.180560857</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1804254.705960857</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1844929.897960857</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1336057.287076848</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1297503.424576848</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1333579.203676848</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1275206.109276847</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1235817.103976847</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1273785.267076847</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1224726.964376847</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1178529.894376847</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1227008.314476847</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1150449.461176847</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1059469.727076847</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1104752.496476847</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1143403.147476847</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1114305.252076847</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1159514.999076847</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1210558.886376847</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1255341.238176847</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1226451.587976847</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1285329.797376847</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1238782.007176847</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1283416.440876847</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1324058.372876847</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1288859.002876847</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1300013.385576847</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1281855.988476847</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1323400.769976847</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1271068.180276847</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1225142.857676847</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1193406.700276847</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1234182.201876848</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1283508.999576848</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1312571.330976848</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1274209.554376848</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1317632.297676848</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1262155.745576848</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1228968.341276848</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1271964.345276847</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1224417.934876848</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1174230.366076848</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1240296.576476848</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1237650.627876848</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1197309.428976848</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1248666.318476848</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1177248.631476848</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1221066.380376848</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1185974.507776848</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1261890.197176848</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1248257.325276848</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1198640.797276848</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1155866.050276848</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1236137.649676848</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1210445.491276848</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1226178.038376848</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1184705.204176848</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1142425.825676848</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1173149.357976848</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1138186.344076848</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1180791.208876848</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1225142.995176848</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1189650.779576848</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1143498.117276848</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1095027.083676848</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1089263.166676848</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1136112.813676848</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1058359.539276848</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1008382.151376848</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1051016.125276848</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1038471.807076848</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1001852.950876848</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1042777.816076848</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-999821.0758768482</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1034324.635676848</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1293318.483676848</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1339146.492176848</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1301202.559576848</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1346568.962476848</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1323053.548176848</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1372286.521176848</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1334275.808376848</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1381943.478076848</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1335842.845276848</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1369110.625976848</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1328431.583876848</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1359330.583576848</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1399921.133276848</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1383064.814476848</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1438083.818176848</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1487614.695876848</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1487614.695876848</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1518022.261076848</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1479910.360476848</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1529415.007176848</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1503394.489076848</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1557906.248676848</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1514084.322376848</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1514084.322376848</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1543049.522276848</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1494260.817676848</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1537266.477076848</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1484832.970076848</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1433826.218776848</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1371574.379276848</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1421839.958076848</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1394027.874876848</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1357982.626776848</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1405305.848776848</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1455396.240676848</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1413942.051176848</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1456623.869676848</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1423379.409076848</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1438317.766776848</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1401200.075776848</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1358943.481276848</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1407120.979576848</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1449650.559276849</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1399980.782476848</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1443340.577776848</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1424955.777276848</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1470081.621076848</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1506963.849576848</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1467390.650076848</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1402207.976376848</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1714749.845176848</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2017333.013576848</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2071233.077776848</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2027652.659976848</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2069263.647176848</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2016723.114676849</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-2057137.255476848</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2012614.064176848</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2062137.910776848</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2024314.430576848</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-2086312.830676848</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-2045998.573076848</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-2023652.060276848</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1494216.072360216</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1624067.415360216</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1599969.990160216</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1657603.206360216</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1623286.040760216</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1672591.878460216</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1625315.144360216</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1656555.135660216</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1718488.402560216</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1694077.151060216</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1731789.863860216</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1673673.671860216</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1703144.308460216</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1763640.801760216</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1707505.090660216</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1665336.456560216</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1613922.066460216</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1657514.936460217</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1714551.068460217</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1727134.915060217</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1685693.318060216</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1731747.430760216</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1777980.342960216</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1729607.046360216</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1772876.671260216</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1732485.707560216</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1758839.234560216</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1794022.962260216</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1845457.714760216</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1793866.116060216</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1813860.930660216</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1777561.947460216</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1823599.670160216</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1773387.336860216</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1813356.709060216</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1748116.495960216</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1685428.083760216</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1726134.267060216</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1741239.827560216</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1856604.107160216</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1856604.107160216</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1803111.944560216</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1770531.734660216</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1738206.395960216</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1842373.113060216</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1796893.010760217</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1757588.299460216</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1720319.888160216</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1752354.106160216</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1717284.955160216</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1717284.955160216</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1740220.160160217</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1679175.643360216</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1720632.330360216</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1670116.718260216</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1630715.726660216</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1731409.527760216</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1688017.131960216</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1647221.382460216</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1673545.096260216</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1716246.498160216</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1735944.660560216</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1685761.288960216</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1751320.577960216</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1714956.889360216</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1736433.715060216</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1785689.670660216</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1755645.193460216</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1712869.460260216</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1733688.596660216</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1960717.314560216</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2001165.036060216</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2001165.036060216</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1950047.525360216</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1979639.138560216</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1921431.660260216</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1921431.660260216</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-1969985.586060216</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1926261.638860216</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1968404.619260216</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1932653.135960216</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1954912.687160216</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1914319.645960216</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1914319.645960216</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1959646.343460216</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1914015.622960216</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1869081.215160216</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1909182.201060216</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1823055.676960216</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1783945.674560216</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1864108.916660216</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1783518.607660216</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1739166.380860216</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1783951.766060216</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1822762.568360216</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1778205.329360216</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1804850.600660216</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1756215.694260216</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1513744.421060216</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1513744.421060216</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1552085.824660216</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1529929.517960216</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1602769.606560216</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1648157.007560216</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1648157.007560216</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1614819.445860216</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1662765.797960216</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1662765.797960216</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1611496.681260216</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1652429.120260216</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1608625.372060216</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1567890.962160216</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1608272.648660216</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1784318.590960216</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-1728710.404560216</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-1596023.408760216</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-1553490.004960216</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-1602242.175260216</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-1653568.395860217</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1697233.612660217</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1656185.187660217</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1699318.666960217</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1740462.259760217</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1719953.066060217</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1771200.777460217</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1725982.234060216</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1682666.602260216</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1749261.239860216</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1785786.319860216</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1758033.699960216</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1703686.538960216</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1720602.998960216</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1762826.591460216</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1711920.042160216</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1672133.612660216</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1636244.397460216</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1594153.262260216</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1660099.519260216</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1608112.078960216</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1582773.927460216</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1646741.158760217</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1646741.158760217</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1694985.815060216</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1740108.431060216</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1708695.953660216</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-1755519.852260216</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-1719329.298360216</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1664071.635660216</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1630245.906260216</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1669294.495660216</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1826631.738960216</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1786592.380860216</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1953039.970460216</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1411603.938960216</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1943543.529860216</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1990791.195460216</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1916428.765560216</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1948661.025560216</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-2069000.372360216</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-2212475.732260216</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-2181076.554060216</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-2125657.483460216</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -26719,17 +26719,11 @@
         <v>-4626185.725260217</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>2.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26758,17 +26752,11 @@
         <v>-4580604.629060217</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>2.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26838,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26875,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26912,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26949,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27023,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27060,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27097,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27134,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27171,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27208,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27245,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27282,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27319,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27356,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27393,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27430,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27504,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27541,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27578,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27615,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27652,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27689,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27726,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27763,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27800,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27837,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27911,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27948,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27985,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28022,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28059,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28096,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28133,11 +27977,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28170,11 +28010,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28207,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28244,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28277,17 +28105,11 @@
         <v>-5403327.011760215</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28316,17 +28138,11 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28355,17 +28171,11 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28394,17 +28204,11 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28433,17 +28237,11 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28472,17 +28270,11 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28511,17 +28303,11 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28550,17 +28336,11 @@
         <v>-5367517.685460215</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28589,17 +28369,11 @@
         <v>-5324835.526960216</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28628,17 +28402,11 @@
         <v>-5366289.287860216</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28667,17 +28435,11 @@
         <v>-5325463.954560216</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28706,17 +28468,11 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28745,17 +28501,11 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28784,17 +28534,11 @@
         <v>-5207190.545360216</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28823,17 +28567,11 @@
         <v>-5238881.688660216</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28862,17 +28600,11 @@
         <v>-5277781.513760216</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28901,17 +28633,11 @@
         <v>-5324667.023160215</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28940,17 +28666,11 @@
         <v>-5282798.839260216</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28979,17 +28699,11 @@
         <v>-5447109.996360216</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29018,17 +28732,11 @@
         <v>-5420158.949960216</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29057,17 +28765,11 @@
         <v>-5382858.944760216</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29096,17 +28798,11 @@
         <v>-5344157.782760217</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29135,17 +28831,11 @@
         <v>-5183356.975860217</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29174,17 +28864,11 @@
         <v>-5267537.597260216</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>2.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29213,17 +28897,11 @@
         <v>-5317761.855160216</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29252,17 +28930,11 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29291,17 +28963,11 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29330,17 +28996,11 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29369,17 +29029,11 @@
         <v>-5274813.469260216</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29408,17 +29062,11 @@
         <v>-5253813.469260216</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29447,17 +29095,11 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29486,17 +29128,11 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29525,17 +29161,11 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29564,17 +29194,11 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29603,17 +29227,11 @@
         <v>-5262731.356960216</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29642,17 +29260,11 @@
         <v>-5308015.927760215</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>2.069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29681,17 +29293,11 @@
         <v>-5270741.949460216</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29720,17 +29326,11 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29759,17 +29359,11 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29798,17 +29392,11 @@
         <v>-5272396.385760215</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29837,17 +29425,11 @@
         <v>-5379183.424160215</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29876,17 +29458,11 @@
         <v>-5335595.432960215</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29915,17 +29491,11 @@
         <v>-5287799.166760215</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29954,17 +29524,11 @@
         <v>-5608430.726060214</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29993,17 +29557,11 @@
         <v>-5536214.738560215</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30032,17 +29590,11 @@
         <v>-5486835.306260214</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30071,17 +29623,11 @@
         <v>-5469407.831260215</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30110,17 +29656,11 @@
         <v>-5509430.271760214</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30149,17 +29689,11 @@
         <v>-5465334.381760214</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30188,17 +29722,11 @@
         <v>-5417364.722760214</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30227,17 +29755,11 @@
         <v>-5458394.075460214</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>2.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30266,17 +29788,11 @@
         <v>-5414801.433660214</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30305,17 +29821,11 @@
         <v>-5467811.640560213</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30344,17 +29854,11 @@
         <v>-5447589.845960214</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30383,17 +29887,11 @@
         <v>-5484646.724960214</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30422,17 +29920,11 @@
         <v>-5526027.175160213</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30461,17 +29953,11 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30500,17 +29986,11 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30539,17 +30019,11 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30578,17 +30052,11 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30617,17 +30085,11 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30656,17 +30118,11 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30695,17 +30151,11 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30734,17 +30184,11 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30773,17 +30217,11 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30812,17 +30250,11 @@
         <v>-5513559.260660213</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30851,17 +30283,11 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30890,17 +30316,11 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30929,17 +30349,11 @@
         <v>-5487180.289560213</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30968,17 +30382,11 @@
         <v>-5573306.077060212</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31007,17 +30415,11 @@
         <v>-5495928.993960212</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31046,17 +30448,11 @@
         <v>-5577461.922960212</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31085,17 +30481,11 @@
         <v>-5517773.623160212</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31124,17 +30514,11 @@
         <v>-5553550.408760212</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31163,17 +30547,11 @@
         <v>-5507656.430560213</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31202,17 +30580,11 @@
         <v>-5550008.433460212</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31241,17 +30613,11 @@
         <v>-5514471.011260212</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31280,17 +30646,11 @@
         <v>-5562624.923360213</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31319,17 +30679,11 @@
         <v>-5600322.069360212</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>2.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31358,17 +30712,11 @@
         <v>-5580112.188560212</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31397,17 +30745,11 @@
         <v>-5661922.245160212</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31436,17 +30778,11 @@
         <v>-5687832.074660212</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>2.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31475,17 +30811,11 @@
         <v>-5644697.114760212</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31514,17 +30844,11 @@
         <v>-5623846.762860212</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31553,17 +30877,11 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31592,17 +30910,11 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31631,17 +30943,11 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31670,17 +30976,11 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31717,7 +31017,7 @@
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L928" t="n">
@@ -32762,11 +32062,9 @@
         <v>-5384773.266360212</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32801,11 +32099,9 @@
         <v>-5350433.732460212</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32840,11 +32136,9 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32879,11 +32173,9 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -32918,11 +32210,9 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32957,11 +32247,9 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -32996,11 +32284,9 @@
         <v>-5440824.732060211</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -33035,11 +32321,9 @@
         <v>-5416375.873960211</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -33074,11 +32358,9 @@
         <v>-5377865.814060211</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33113,11 +32395,9 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33152,11 +32432,9 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33191,11 +32469,9 @@
         <v>-5378781.905260211</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33230,11 +32506,9 @@
         <v>-5413329.049060211</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>2.065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33269,11 +32543,9 @@
         <v>-5451194.038060211</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33308,11 +32580,9 @@
         <v>-5406541.531360211</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33347,11 +32617,9 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
-      </c>
-      <c r="I970" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33386,11 +32654,9 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
-      </c>
-      <c r="I971" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33425,11 +32691,9 @@
         <v>-5409107.083360211</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33464,11 +32728,9 @@
         <v>-5389472.098360211</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33503,11 +32765,9 @@
         <v>-5439422.940860211</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>2.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33542,11 +32802,9 @@
         <v>-5393176.106660211</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33581,11 +32839,9 @@
         <v>-5437425.398060211</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
-      </c>
-      <c r="I976" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33620,11 +32876,9 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
-      </c>
-      <c r="I977" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -33659,11 +32913,9 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -33698,11 +32950,9 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33737,11 +32987,9 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -33776,11 +33024,9 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -33815,11 +33061,9 @@
         <v>-5501160.087360212</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -33854,11 +33098,9 @@
         <v>-5417167.445560211</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -33893,11 +33135,9 @@
         <v>-5443190.770360211</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>2.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -33932,11 +33172,9 @@
         <v>-5399121.931460211</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -33971,11 +33209,9 @@
         <v>-5445317.210760211</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -34010,11 +33246,9 @@
         <v>-5399149.437560211</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -34049,11 +33283,9 @@
         <v>-5440488.968060211</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -34088,11 +33320,9 @@
         <v>-5483955.056660212</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -34127,11 +33357,9 @@
         <v>-5409200.352160212</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -34166,11 +33394,9 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -34205,11 +33431,9 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -34244,11 +33468,9 @@
         <v>-5502109.925060212</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -34283,11 +33505,9 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>2.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -34322,11 +33542,9 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -34361,11 +33579,9 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
-      </c>
-      <c r="I996" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -34400,11 +33616,9 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
-      </c>
-      <c r="I997" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
@@ -34439,11 +33653,9 @@
         <v>-5460509.652560213</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
-      </c>
-      <c r="I998" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34478,11 +33690,9 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
-      </c>
-      <c r="I999" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34556,11 +33766,9 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34595,11 +33803,9 @@
         <v>-5454091.643360212</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>2.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -37832,11 +37038,9 @@
         <v>-5540665.195060216</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>2.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
@@ -39470,11 +38674,9 @@
         <v>-5702231.653869973</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -42005,11 +41207,9 @@
         <v>-5774790.597169976</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -42044,11 +41244,9 @@
         <v>-5732120.969969976</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -42083,11 +41281,9 @@
         <v>-5751953.390269976</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -42122,11 +41318,9 @@
         <v>-5251953.390269976</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1195" t="n">
-        <v>2.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -42161,11 +41355,9 @@
         <v>-5295101.380169977</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -42200,11 +41392,9 @@
         <v>-5243694.450169977</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -42239,11 +41429,9 @@
         <v>-5199087.850369977</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>2.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -42278,11 +41466,9 @@
         <v>-5270166.990469977</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>2.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -42317,11 +41503,9 @@
         <v>-5204699.421869977</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>2.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -42356,11 +41540,9 @@
         <v>-5158809.431669977</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>2.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -42395,11 +41577,9 @@
         <v>-5178652.194669978</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>2.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -42412,6 +41592,6 @@
       <c r="M1202" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>